--- a/biology/Zoologie/Ctenotus_schomburgkii/Ctenotus_schomburgkii.xlsx
+++ b/biology/Zoologie/Ctenotus_schomburgkii/Ctenotus_schomburgkii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenotus schomburgkii est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenotus schomburgkii est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord, au Queensland, en Australie-Méridionale et en Nouvelle-Galles du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Australie-Occidentale, dans le Territoire du Nord, au Queensland, en Australie-Méridionale et en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Moritz Richard Schomburgk (1811–1891)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Moritz Richard Schomburgk (1811–1891).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1863 : Eine Übersicht der von Hrn. Richard Schomburgk an das zoologische Museum eingesandten Amphibien, aus Buchsfelde bei Adelaide in Südaustralien. Monatsberichte der Königlich Preussischen Akademie der Wissenschaften zu Berlin, vol. 1863, p. 228-236 (texte intégral).</t>
         </is>
